--- a/data/case1/11/V1_2.xlsx
+++ b/data/case1/11/V1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998999679529</v>
+        <v>0.9999999967220834</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99392869661528505</v>
+        <v>0.99479307412868612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97160406696272106</v>
+        <v>0.97726943032200508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96412222388667668</v>
+        <v>0.97018939803775406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95712407024654</v>
+        <v>0.9636065023774224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94037787755668167</v>
+        <v>0.94792193459981955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93581520623215431</v>
+        <v>0.94570514729175459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93012151158466194</v>
+        <v>0.94392585551094954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92409843111708478</v>
+        <v>0.94069633902744321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.91899728728815633</v>
+        <v>0.93840589649286121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.91833011561295197</v>
+        <v>0.93821143121777073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91731633240175747</v>
+        <v>0.93809764889493419</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91420778525308832</v>
+        <v>0.93901401801028883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9100406407756052</v>
+        <v>0.94009143001250028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90744928694465288</v>
+        <v>0.94254980926845222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90494287662487904</v>
+        <v>0.94004351624336246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90123507186614948</v>
+        <v>0.93633576309574162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90012618849795056</v>
+        <v>0.93522684407450118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99031905249497132</v>
+        <v>0.99373981757384477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9832021786955123</v>
+        <v>0.98662262504882681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98180373280265831</v>
+        <v>0.98522411254767506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9805392398202899</v>
+        <v>0.98395960341563737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96456843491190714</v>
+        <v>0.97023406161970516</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95154669544013393</v>
+        <v>0.95721261279194358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94508957000990768</v>
+        <v>0.95075551494281152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93944304794353584</v>
+        <v>0.94599558504467929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9383930998991814</v>
+        <v>0.94356004578486685</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9341104151989843</v>
+        <v>0.93345096134749606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93167178897347847</v>
+        <v>0.92662784680160626</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92510271532461275</v>
+        <v>0.92420847579428833</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91745007822887403</v>
+        <v>0.9273608447751307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91577084562587663</v>
+        <v>0.92568151902595863</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91525085318264998</v>
+        <v>0.92516149888589572</v>
       </c>
     </row>
   </sheetData>
